--- a/download/英制管螺纹圆板牙.xlsx
+++ b/download/英制管螺纹圆板牙.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>编号</t>
   </si>
   <si>
-    <t>商品ID</t>
+    <t>商品id</t>
   </si>
   <si>
     <t>规格型号</t>
@@ -43,6 +43,9 @@
     <t>库存下限</t>
   </si>
   <si>
+    <t>库位</t>
+  </si>
+  <si>
     <t>停用</t>
   </si>
   <si>
@@ -65,6 +68,12 @@
   </si>
   <si>
     <t>上海公司</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>否</t>
@@ -422,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,18 +439,19 @@
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,75 +485,78 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>125</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>125</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
